--- a/Internproject/src/main/java/Datefile.xlsx
+++ b/Internproject/src/main/java/Datefile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\Sakshamwane-Automation_Of_Invigilator_Duty_Chart_Generatio\Internproject\src\main\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\college intern\Sakshamwane-Automation_Of_Invigilator_Duty_Chart_Generatio\Internproject\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451A3731-09E7-4A28-A297-3FE2C8A93508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>DATE</t>
   </si>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,11 +369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,16 +467,36 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>44753</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>44754</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>44755</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>44753</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Internproject/src/main/java/Datefile.xlsx
+++ b/Internproject/src/main/java/Datefile.xlsx
@@ -8,50 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\college intern\Sakshamwane-Automation_Of_Invigilator_Duty_Chart_Generatio\Internproject\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451A3731-09E7-4A28-A297-3FE2C8A93508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814424A8-5386-44F8-9901-FA75AF56D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>PH</t>
+    <t>Students</t>
   </si>
 </sst>
 </file>
@@ -370,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,117 +374,128 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44753</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44754</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44755</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4">
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44756</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>1006</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44757</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>956</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44760</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
+        <v>44758</v>
+      </c>
+      <c r="B7">
+        <v>945</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44761</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
+        <v>44759</v>
+      </c>
+      <c r="B8">
+        <v>961</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44762</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
+        <v>44760</v>
+      </c>
+      <c r="B9">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44763</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
+        <v>44761</v>
+      </c>
+      <c r="B10">
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44764</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
+        <v>44762</v>
+      </c>
+      <c r="B11">
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44753</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
+        <v>44763</v>
+      </c>
+      <c r="B12">
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44754</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
+        <v>44764</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44755</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
+        <v>44765</v>
+      </c>
+      <c r="B14">
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44753</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
+        <v>44766</v>
+      </c>
+      <c r="B15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B16">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/Internproject/src/main/java/Datefile.xlsx
+++ b/Internproject/src/main/java/Datefile.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\college intern\Sakshamwane-Automation_Of_Invigilator_Duty_Chart_Generatio\Internproject\src\main\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\Sakshamwane-Automation_Of_Invigilator_Duty_Chart_Generatio\Internproject\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814424A8-5386-44F8-9901-FA75AF56D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,11 +357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,7 +382,7 @@
         <v>44753</v>
       </c>
       <c r="B2">
-        <v>720</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">

--- a/Internproject/src/main/java/Datefile.xlsx
+++ b/Internproject/src/main/java/Datefile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\Sakshamwane-Automation_Of_Invigilator_Duty_Chart_Generatio\Internproject\src\main\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\college intern\Sakshamwane-Automation_Of_Invigilator_Duty_Chart_Generatio\Internproject\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1A8FF3-2687-459F-AACA-959BE9D2CE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="6264" yWindow="4104" windowWidth="15336" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,16 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,11 +348,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,7 +370,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44753</v>
+        <v>44774</v>
       </c>
       <c r="B2">
         <v>730</v>
@@ -387,7 +378,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44754</v>
+        <v>44775</v>
       </c>
       <c r="B3">
         <v>846</v>
@@ -395,7 +386,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44755</v>
+        <v>44776</v>
       </c>
       <c r="B4">
         <v>920</v>
@@ -403,7 +394,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44756</v>
+        <v>44777</v>
       </c>
       <c r="B5">
         <v>1006</v>
@@ -411,7 +402,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44757</v>
+        <v>44778</v>
       </c>
       <c r="B6">
         <v>956</v>
@@ -419,7 +410,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44758</v>
+        <v>44779</v>
       </c>
       <c r="B7">
         <v>945</v>
@@ -427,7 +418,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44759</v>
+        <v>44780</v>
       </c>
       <c r="B8">
         <v>961</v>
@@ -435,7 +426,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44760</v>
+        <v>44781</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -443,7 +434,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44761</v>
+        <v>44782</v>
       </c>
       <c r="B10">
         <v>750</v>
@@ -451,7 +442,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44762</v>
+        <v>44783</v>
       </c>
       <c r="B11">
         <v>952</v>
@@ -459,7 +450,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44763</v>
+        <v>44784</v>
       </c>
       <c r="B12">
         <v>276</v>
@@ -467,7 +458,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44764</v>
+        <v>44785</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -475,7 +466,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44765</v>
+        <v>44786</v>
       </c>
       <c r="B14">
         <v>640</v>
@@ -483,7 +474,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44766</v>
+        <v>44787</v>
       </c>
       <c r="B15">
         <v>520</v>
@@ -491,7 +482,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44767</v>
+        <v>44788</v>
       </c>
       <c r="B16">
         <v>560</v>

--- a/Internproject/src/main/java/Datefile.xlsx
+++ b/Internproject/src/main/java/Datefile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\college intern\Sakshamwane-Automation_Of_Invigilator_Duty_Chart_Generatio\Internproject\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1A8FF3-2687-459F-AACA-959BE9D2CE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAC8132-C58B-4679-A7D9-33CBE0EC5BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6264" yWindow="4104" windowWidth="15336" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -373,7 +373,7 @@
         <v>44774</v>
       </c>
       <c r="B2">
-        <v>730</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -381,7 +381,7 @@
         <v>44775</v>
       </c>
       <c r="B3">
-        <v>846</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -389,7 +389,7 @@
         <v>44776</v>
       </c>
       <c r="B4">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -397,7 +397,7 @@
         <v>44777</v>
       </c>
       <c r="B5">
-        <v>1006</v>
+        <v>986</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
